--- a/public/template_import_tindakan_bhp.xlsx
+++ b/public/template_import_tindakan_bhp.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>Nomor</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Nama BHP</t>
   </si>
   <si>
+    <t>Satuan</t>
+  </si>
+  <si>
     <t>Jumlah</t>
   </si>
   <si>
@@ -94,12 +97,18 @@
     <t>Contoh Nama BHP 1</t>
   </si>
   <si>
+    <t>CC</t>
+  </si>
+  <si>
     <t>Poli Umum</t>
   </si>
   <si>
     <t>Contoh Nama BHP 2</t>
   </si>
   <si>
+    <t>Cm</t>
+  </si>
+  <si>
     <t>Suntik Bius</t>
   </si>
   <si>
@@ -110,6 +119,9 @@
   </si>
   <si>
     <t>Contoh BHP 3</t>
+  </si>
+  <si>
+    <t>Liter</t>
   </si>
 </sst>
 </file>
@@ -117,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -136,6 +148,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -154,8 +173,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +207,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,15 +215,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,17 +243,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,61 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,19 +304,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,170 +488,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -492,6 +504,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -523,30 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -558,21 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,11 +578,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,157 +619,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,6 +798,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -1124,7 +1153,7 @@
     <col min="19" max="19" width="18.8828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,25 +1211,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>100000</v>
@@ -1212,7 +1244,7 @@
         <v>100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
@@ -1245,16 +1277,19 @@
         <v>20000</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2" s="2">
+        <v>26</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="U2" s="2">
         <v>1</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>26</v>
+      <c r="V2" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1274,25 +1309,28 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="2">
+        <v>29</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" s="2">
         <v>1</v>
       </c>
-      <c r="U3" s="4"/>
+      <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>200000</v>
@@ -1304,7 +1342,7 @@
         <v>200000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -1337,13 +1375,16 @@
         <v>20000</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="2">
+        <v>34</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" s="2">
         <v>1</v>
       </c>
-      <c r="U4" s="4" t="s">
-        <v>26</v>
+      <c r="V4" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
